--- a/Lead Scoring Assignment/Leads Data Dictionary.xlsx
+++ b/Lead Scoring Assignment/Leads Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhima\Downloads\Lead+Scoring+Case+Study\Lead Scoring Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26ACB1B-4ACE-4F1E-BDA9-222EBE7FEC5F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B103371F-EC4E-4099-8E99-3810CA4C3468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{EB0EA90F-5D02-4555-A556-590372CD380C}"/>
+    <workbookView xWindow="340" yWindow="340" windowWidth="6490" windowHeight="1420" xr2:uid="{EB0EA90F-5D02-4555-A556-590372CD380C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>Last Notable Activity</t>
   </si>
@@ -235,13 +235,37 @@
   </si>
   <si>
     <t>The target variable. Indicates whether a lead has been successfully converted or not.</t>
+  </si>
+  <si>
+    <t>dlt</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>dropped under_inv</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>multi</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>Dependent</t>
+  </si>
+  <si>
+    <t>dropped as employee emotions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +277,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -364,6 +395,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,18 +715,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B9257A-60F9-4716-BB64-9F7B0F8B9298}">
   <dimension ref="A3:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>65</v>
       </c>
@@ -700,7 +734,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -708,7 +745,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
@@ -716,23 +756,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
@@ -740,7 +789,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
@@ -748,7 +800,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
@@ -756,79 +811,109 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
@@ -836,37 +921,55 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
@@ -874,7 +977,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
@@ -882,15 +988,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
@@ -898,7 +1010,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
@@ -906,7 +1021,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -914,23 +1032,32 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:3" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
@@ -938,25 +1065,37 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B38" s="3" t="s">
         <v>2</v>
       </c>
@@ -964,7 +1103,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B39" s="3" t="s">
         <v>1</v>
       </c>
@@ -972,8 +1114,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
